--- a/Universal_Driver_soft/UniversalDriver_v2.1_extDriver/Map Registers.xlsx
+++ b/Universal_Driver_soft/UniversalDriver_v2.1_extDriver/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF34DD30-8C5B-4F2D-AF3F-B3247CB15773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D33A7FA-AF27-4831-8003-BD320E000E6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>Десятичная</t>
   </si>
@@ -149,31 +149,22 @@
     <t>Скорость врашения  в процентах</t>
   </si>
   <si>
-    <t>1-100</t>
-  </si>
-  <si>
     <t>для прошивки UniversalDriver_v2.1forStepper</t>
   </si>
   <si>
-    <t>Максимальный ток</t>
-  </si>
-  <si>
-    <t>CurrentMAX</t>
-  </si>
-  <si>
     <t>CurrentMIN</t>
   </si>
   <si>
     <t>Минимальный ток</t>
   </si>
   <si>
-    <t xml:space="preserve">если </t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>Напряжение питание двиготеля(напряжение питания меньше 30V установить true "1")</t>
+    <t>Accel</t>
+  </si>
+  <si>
+    <t>Ускорение</t>
+  </si>
+  <si>
+    <t>1-1000</t>
   </si>
 </sst>
 </file>
@@ -600,14 +591,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -956,7 +947,7 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,14 +964,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="A2" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1107,7 +1098,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F8" s="17">
         <v>1</v>
@@ -1127,10 +1118,14 @@
         <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
       <c r="G9" s="16" t="s">
         <v>33</v>
       </c>
@@ -1143,10 +1138,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -1161,18 +1156,10 @@
       <c r="B11" s="22">
         <v>7</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="16" t="s">
         <v>33</v>
       </c>
